--- a/conf-core/src/main/webapp/resources/import-templates/ccdb_slots.xlsx
+++ b/conf-core/src/main/webapp/resources/import-templates/ccdb_slots.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -247,6 +252,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -295,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,7 +730,7 @@
       <formula1>"CONTAINER,SLOT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
-      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATION,UPDATE RELATION,DELETE RELATION,INSTALL,UNINSTALL"</formula1>
+      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATION,DELETE RELATION,INSTALL,UNINSTALL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf-core/src/main/webapp/resources/import-templates/ccdb_slots.xlsx
+++ b/conf-core/src/main/webapp/resources/import-templates/ccdb_slots.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +49,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -69,12 +61,6 @@
     <t>PROPERTY</t>
   </si>
   <si>
-    <t>2015/SEP/02</t>
-  </si>
-  <si>
-    <t>Template file to import slots in the CCDB</t>
-  </si>
-  <si>
     <t>ENTITY</t>
   </si>
   <si>
@@ -90,14 +76,29 @@
     <t>INSTALLATION</t>
   </si>
   <si>
-    <t>Development</t>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
+  </si>
+  <si>
+    <t>2016/JAN/14</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Template file to import/export slots to/from the CCDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +110,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,10 +224,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -243,8 +253,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -252,9 +264,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -303,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -576,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1"/>
@@ -589,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
       <c r="G3" s="1"/>
@@ -625,69 +634,75 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -703,6 +718,9 @@
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -710,30 +728,36 @@
     <row r="15" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
     <row r="17" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="G8:H8 J9 K8:K9 H9 I9 I8:J8 F9 G9 B9 A8:A9 C9:E9 B8:F8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="G9:H9 J10 K9:K10 H10 I10 I9:J9 F10 G10 B10 B9:F9 C10:E10 A9:A10"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576">
       <formula1>"CONTAINS,CONTAINED IN,CONTROLS,CONTROLLED BY,POWERS,POWERED BY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="B10:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="B11:B1048576">
       <formula1>"CONTAINER,SLOT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
-      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATION,DELETE RELATION,INSTALL,UNINSTALL"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A1048576">
+      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATIONSHIP,UPDATE RELATIONSHIP,DELETE RELATIONSHIP,INSTALL DEVICE,UNINSTALL DEVICE"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>